--- a/target/classes/TestCases.xlsx
+++ b/target/classes/TestCases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>caseID</t>
   </si>
@@ -337,43 +337,16 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>2022-05-10 11:26:15</t>
+    <t>2022-06-07 16:44:53</t>
   </si>
   <si>
     <t>用例执行通过</t>
   </si>
   <si>
-    <t>2022-05-10 11:27:33</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:28:17</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:29:34</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:29:36</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:31:31</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:31:32</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:31:33</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:37:28</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:37:29</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:37:30</t>
-  </si>
-  <si>
-    <t>2022-05-10 11:41:47</t>
+    <t>2022-06-07 16:45:26</t>
+  </si>
+  <si>
+    <t>2022-06-07 16:45:27</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,58 +1042,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
@@ -1606,16 +1527,16 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="66" t="s">
+      <c r="I3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="17" t="s">
         <v>104</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1902,10 +1823,18 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2044,18 +1973,10 @@
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>104</v>
-      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2088,18 +2009,10 @@
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>104</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2132,18 +2045,10 @@
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="65" t="s">
-        <v>104</v>
-      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
         <v>33</v>
       </c>
